--- a/tuning_and_performance.xlsx
+++ b/tuning_and_performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LENKA\STU\PHD\Science\ENERGY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LENKA\STU\PHD\Science\ENERGY\repository\self_tunable_HE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47632741-FEEE-41CF-80E5-5F0C8F1452D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098C4220-164F-4E22-AE99-1C070D80A3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FDE36F7A-3726-4B54-89C5-B98D2615A837}"/>
+    <workbookView xWindow="30180" yWindow="-1464" windowWidth="14400" windowHeight="7272" xr2:uid="{FDE36F7A-3726-4B54-89C5-B98D2615A837}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
   <si>
     <r>
       <t>Q</t>
@@ -198,6 +198,102 @@
   </si>
   <si>
     <t>0.938</t>
+  </si>
+  <si>
+    <t>ref_tracking26</t>
+  </si>
+  <si>
+    <t>ref_tracking27</t>
+  </si>
+  <si>
+    <t>ref_tracking28</t>
+  </si>
+  <si>
+    <t>ref_tracking29</t>
+  </si>
+  <si>
+    <t>500 tunable</t>
+  </si>
+  <si>
+    <t>550 tunable - delta size</t>
+  </si>
+  <si>
+    <t>550 tunable - diff IC</t>
+  </si>
+  <si>
+    <t>0.1519</t>
+  </si>
+  <si>
+    <t>0.1913</t>
+  </si>
+  <si>
+    <t>0.2459</t>
+  </si>
+  <si>
+    <t>0.1649</t>
+  </si>
+  <si>
+    <t>2.103</t>
+  </si>
+  <si>
+    <t>1.098</t>
+  </si>
+  <si>
+    <t>3.354</t>
+  </si>
+  <si>
+    <t>2.381</t>
+  </si>
+  <si>
+    <t>0.2001</t>
+  </si>
+  <si>
+    <t>0.3836</t>
+  </si>
+  <si>
+    <t>0.2810</t>
+  </si>
+  <si>
+    <t>0.1237</t>
+  </si>
+  <si>
+    <t>2.377</t>
+  </si>
+  <si>
+    <t>3.395</t>
+  </si>
+  <si>
+    <t>2.143</t>
+  </si>
+  <si>
+    <t>1.162</t>
+  </si>
+  <si>
+    <t>0.3132</t>
+  </si>
+  <si>
+    <t>0.1857</t>
+  </si>
+  <si>
+    <t>0.2506</t>
+  </si>
+  <si>
+    <t>0.1099</t>
+  </si>
+  <si>
+    <t>2.410</t>
+  </si>
+  <si>
+    <t>3.502</t>
+  </si>
+  <si>
+    <t>2.138</t>
+  </si>
+  <si>
+    <t>1.134</t>
+  </si>
+  <si>
+    <t>550 tunable - delta size -</t>
   </si>
 </sst>
 </file>
@@ -429,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -462,6 +558,18 @@
     <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -776,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24187AA2-D870-438E-B038-0C0C3317218D}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -904,264 +1012,1131 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:7" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B16" s="9">
         <v>1000</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C16" s="9">
         <v>714</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F16" s="11">
         <v>45062</v>
       </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2">
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="2">
         <v>100</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C17" s="2">
         <v>867</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F17" s="4">
         <v>45058</v>
       </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16" t="s">
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C18" s="17">
+        <v>678</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="18">
+        <v>45055</v>
+      </c>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="20">
+        <v>2</v>
+      </c>
+      <c r="B19" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="21">
+        <v>365</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="10">
+        <v>5</v>
+      </c>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="3">
+        <v>100</v>
+      </c>
+      <c r="C20" s="3">
+        <v>606</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="5">
+        <v>45072</v>
+      </c>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="25"/>
+      <c r="B21" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17">
+        <v>248</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="27">
+        <v>45055</v>
+      </c>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>3</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="9">
+        <v>245</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="11">
+        <v>45052</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="13"/>
+      <c r="B23" s="2">
+        <v>100</v>
+      </c>
+      <c r="C23" s="2">
+        <v>398</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="2">
+        <v>31</v>
+      </c>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="15"/>
+      <c r="B24" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="17">
+        <v>186</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="18">
+        <v>45052</v>
+      </c>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="20">
+        <v>4</v>
+      </c>
+      <c r="B25" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="21">
+        <v>1024</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="31">
+        <v>45068</v>
+      </c>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="3">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1402</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="3">
+        <v>90</v>
+      </c>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="25"/>
+      <c r="B27" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="17">
+        <v>967</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="18">
+        <v>45064</v>
+      </c>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
+        <v>1</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C32" s="10">
+        <v>714</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="11">
+        <v>45062</v>
+      </c>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="13"/>
+      <c r="B33" s="2">
+        <v>100</v>
+      </c>
+      <c r="C33" s="2">
+        <v>867</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="4">
+        <v>45058</v>
+      </c>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="15"/>
+      <c r="B34" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="16">
+        <v>807</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="18">
+        <v>45057</v>
+      </c>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="20">
+        <v>2</v>
+      </c>
+      <c r="B35" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C35" s="10">
+        <v>365</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="10">
+        <v>5</v>
+      </c>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="3">
+        <v>100</v>
+      </c>
+      <c r="C36" s="3">
+        <v>606</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="5">
+        <v>45072</v>
+      </c>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="25"/>
+      <c r="B37" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="26">
+        <v>518</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="27">
+        <v>17</v>
+      </c>
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
+        <v>3</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C38" s="9">
+        <v>245</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="11">
+        <v>45052</v>
+      </c>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="13"/>
+      <c r="B39" s="2">
+        <v>100</v>
+      </c>
+      <c r="C39" s="2">
+        <v>398</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="2">
+        <v>31</v>
+      </c>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="15"/>
+      <c r="B40" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="17">
+        <v>177</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="18">
+        <v>45052</v>
+      </c>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="20">
+        <v>4</v>
+      </c>
+      <c r="B41" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="21">
+        <v>1024</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="31">
+        <v>45068</v>
+      </c>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="23"/>
+      <c r="B42" s="3">
+        <v>100</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1402</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="3">
+        <v>90</v>
+      </c>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="25"/>
+      <c r="B43" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="17">
+        <v>930</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="18">
+        <v>45063</v>
+      </c>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="8">
+        <v>1</v>
+      </c>
+      <c r="B48" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C48" s="10">
+        <v>714</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="11">
+        <v>45062</v>
+      </c>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="13"/>
+      <c r="B49" s="2">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2">
+        <v>867</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="4">
+        <v>45058</v>
+      </c>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="15"/>
+      <c r="B50" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="16">
+        <v>1095</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="18">
+        <v>94</v>
+      </c>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="20">
+        <v>2</v>
+      </c>
+      <c r="B51" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="10">
+        <v>365</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="10">
+        <v>5</v>
+      </c>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="23"/>
+      <c r="B52" s="3">
+        <v>100</v>
+      </c>
+      <c r="C52" s="3">
+        <v>606</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="5">
+        <v>45072</v>
+      </c>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="25"/>
+      <c r="B53" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="26">
+        <v>398</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="27">
+        <v>45057</v>
+      </c>
+      <c r="G53" s="28"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="8">
+        <v>3</v>
+      </c>
+      <c r="B54" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C54" s="9">
+        <v>245</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="11">
+        <v>45052</v>
+      </c>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="13"/>
+      <c r="B55" s="2">
+        <v>100</v>
+      </c>
+      <c r="C55" s="2">
+        <v>398</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="2">
+        <v>31</v>
+      </c>
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="15"/>
+      <c r="B56" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="17">
+        <v>197</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="18">
+        <v>45052</v>
+      </c>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="20">
+        <v>4</v>
+      </c>
+      <c r="B57" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C57" s="21">
+        <v>1024</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="31">
+        <v>45068</v>
+      </c>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="23"/>
+      <c r="B58" s="3">
+        <v>100</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1402</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" s="3">
+        <v>90</v>
+      </c>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="25"/>
+      <c r="B59" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="17">
+        <v>909</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="18">
+        <v>45064</v>
+      </c>
+      <c r="G59" s="28"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="8">
+        <v>1</v>
+      </c>
+      <c r="B67" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C67" s="9">
+        <v>714</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="11">
+        <v>45062</v>
+      </c>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="13"/>
+      <c r="B68" s="2">
+        <v>100</v>
+      </c>
+      <c r="C68" s="2">
+        <v>867</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="4">
+        <v>45058</v>
+      </c>
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="15"/>
+      <c r="B69" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="17">
         <v>596</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D69" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E69" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F69" s="18">
         <v>45054</v>
       </c>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="20">
+      <c r="G69" s="19"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="20">
         <v>2</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B70" s="21">
         <v>1000</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C70" s="10">
         <v>365</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D70" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E70" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F70" s="10">
         <v>5</v>
       </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="3">
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="23"/>
+      <c r="B71" s="3">
         <v>100</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C71" s="3">
         <v>606</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F71" s="5">
         <v>45072</v>
       </c>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26" t="s">
+      <c r="G71" s="24"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="25"/>
+      <c r="B72" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C72" s="26">
         <v>416</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D72" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E72" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F72" s="27">
         <v>45062</v>
       </c>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+      <c r="G72" s="28"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="8">
         <v>3</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B73" s="9">
         <v>1000</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C73" s="9">
         <v>245</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D73" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E73" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F73" s="29">
         <v>45052</v>
       </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="2">
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="13"/>
+      <c r="B74" s="2">
         <v>100</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C74" s="2">
         <v>398</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F74" s="2">
         <v>31</v>
       </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="15"/>
+      <c r="B75" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C75" s="17">
         <v>180</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D75" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E75" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F75" s="30">
         <v>45053</v>
       </c>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="20">
+      <c r="G75" s="19"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="20">
         <v>4</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B76" s="21">
         <v>1000</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C76" s="10">
         <v>1024</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D76" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E76" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F76" s="31">
         <v>45068</v>
       </c>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="3">
+      <c r="G76" s="22"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="23"/>
+      <c r="B77" s="3">
         <v>100</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C77" s="3">
         <v>1402</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F77" s="3">
         <v>90</v>
       </c>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26" t="s">
+      <c r="G77" s="24"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="25"/>
+      <c r="B78" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C78" s="26">
         <v>1041</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D78" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E78" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F78" s="18">
         <v>45068</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G78" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
